--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
   <si>
     <t>Green  color on right screen available and ready to take task</t>
   </si>
@@ -602,11 +602,14 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>if sunset or idle then white</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,6 +865,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1463,7 +1469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1498,7 +1504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2006,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -2207,9 +2213,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -2489,6 +2495,11 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
